--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\czpkersten\Documents\automatic_emission_reporting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5D5CF1-CE24-46F6-86C0-6D73F381767F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B40388E-FDAF-4B29-B7A4-407FBE8DAAC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17840" windowHeight="15560" xr2:uid="{3B217B0F-29B0-422E-B062-8235E69F09F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17840" windowHeight="15560" activeTab="2" xr2:uid="{3B217B0F-29B0-422E-B062-8235E69F09F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table1a" sheetId="2" r:id="rId2"/>
+    <sheet name="2025_WM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -373,6 +375,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787EFA36-F5F9-470A-9219-7742B89B4061}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2341D124-1250-4AFF-B1A1-7B45149B083A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820378D2-224D-4D45-8251-DB7141145C82}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
